--- a/outputs/automated_blog_posts.xlsx
+++ b/outputs/automated_blog_posts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,255 +454,263 @@
           <t>keyword</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>internal_links</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t># How Does Blockchain Technology Work? Benefits in Finance Explained</t>
+          <t>How Blockchain, Bitcoin, and DeFi Shape Crypto Market Trends Today</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unlock the secrets of blockchain technology and learn how it works. Discover the benefits of blockchain in finance and what is blockchain in Fin for your business.</t>
+          <t>Discover how blockchain is revolutionizing payments, lending platforms, and investment strategies in the crypto market trends, offering faster, secure, and transparent financial solutions. Explore the impact of decentralized finance (DeFi) on the crypto market trends and understand the differences between blockchain and Bitcoin for smarter investment decisions.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Blockchain technology is revolutionizing the financial landscape, impacting various sectors from banking to supply chain management. As more businesses and individuals seek to harness the power of decentralized systems, understanding how blockchain technology works becomes crucial. In this post, we'll explore the intricacies of blockchain technology, delve into the transformative potential of smart contracts, and highlight the benefits of blockchain in finance.
-## Understanding Blockchain Technology
-### What is Blockchain in Finance?
-At its core, blockchain technology is a decentralized digital ledger that records transactions across multiple computers. This ensures that the data is transparent, secure, and immutable. Unlike traditional databases, where a single entity controls the information, blockchain distributes the data across a network. This distribution makes it nearly impossible to alter the data without consensus, showcasing how blockchain technology works in a practical setting.
-### Key Features of Blockchain
-1. **Decentralization**: Eliminates the need for a central authority, which reduces the risk of fraud and corruption.
-2. **Transparency**: All transactions are visible to participants, fostering trust among users.
-3. **Security**: Advanced cryptographic techniques protect data integrity and prevent unauthorized access.
-4. **Immutability**: Once recorded, transactions cannot be changed, ensuring a permanent and tamper-proof record.
-## The Power of Smart Contracts
-### What are Smart Contracts?
-Smart contracts are self-executing contracts with the terms of the agreement directly written into code. They run on blockchain networks, facilitating, verifying, and enforcing the negotiation or performance of a contract without the need for intermediaries. Understanding what is blockchain in finance includes recognizing the role of smart contracts in automating processes.
-### Benefits of Smart Contracts
-- **Efficiency**: Automates processes, reducing the time and costs associated with traditional contract execution.
-- **Accuracy**: Minimizes human error by executing transactions based on pre-defined conditions.
-- **Trust**: Since they are stored on a blockchain, smart contracts are transparent and cannot be altered.
-### Use Cases of Smart Contracts
-- **Financial Services**: Automating loan agreements and insurance claims showcases the benefits of blockchain in finance.
-- **Supply Chain Management**: Tracking goods and verifying authenticity.
-- **Real Estate**: Streamlining property transactions and ownership transfers.
-## Exploring Blockchain Resources
-### Educational Platforms
-To deepen your understanding of how blockchain technology works and the benefits of blockchain in finance, consider exploring the following resources:
-- **Online Courses**: Websites like Coursera, edX, and Udemy offer courses ranging from beginner to advanced levels.
-- **Podcasts**: Tune into blockchain-focused podcasts like "Unchained" and "The Bad Crypto Podcast" for insights from industry experts.
-- **Books**: Titles such as "Mastering Bitcoin" by Andreas Antonopoulos provide in-depth knowledge for those looking to dive deeper.
-### Community and Networking
-Engaging with the blockchain community can enhance your learning experience. Consider joining:
-- **Online Forums**: Platforms like Reddit and Stack Exchange have active discussions on blockchain topics.
-- **Meetups and Conferences**: Attend local meetups or international conferences to network with professionals and enthusiasts.
+          <t>In recent years, the financial landscape has undergone a seismic shift, largely driven by the advent of blockchain technology. As businesses and consumers alike seek faster, more secure, and transparent financial solutions, blockchain has emerged as a game-changer. This article will explore how blockchain is revolutionizing payments, lending platforms, and investment strategies, offering insights for both seasoned professionals and newcomers to the FinTech arena.
+## Blockchain for Payments
+### The Evolution of Payment Systems
+Traditional payment systems often involve multiple intermediaries, leading to delays and increased costs. Blockchain technology streamlines this process by enabling peer-to-peer transactions without the need for banks or payment processors. This decentralization not only speeds up transactions but also enhances security.
+### Benefits of Using Blockchain for Payments
+1. **Speed**: Transactions can be completed in minutes, regardless of geographical locations.
+2. **Cost-Effectiveness**: Lower transaction fees compared to traditional payment methods.
+3. **Security**: Blockchain's cryptographic nature ensures that transactions are secure and tamper-proof.
+4. **Transparency**: All transactions are recorded on a public ledger, enhancing trust among users.
+## Blockchain Lending Platforms
+### The Rise of Decentralized Lending
+Blockchain lending platforms are transforming the way individuals and businesses access credit. By removing intermediaries, these platforms allow for direct lending between parties, fostering a more inclusive financial ecosystem. This shift is a key aspect of decentralized finance (DeFi), which is gaining traction in the crypto market trends.
+### Key Features of Blockchain Lending Platforms
+- **Smart Contracts**: Automated agreements that execute terms without the need for a middleman.
+- **Tokenization**: The ability to represent assets as digital tokens, making it easier to trade and lend.
+- **Global Reach**: Access to a worldwide pool of lenders and borrowers, breaking down geographical barriers.
+### Popular Blockchain Lending Platforms
+1. **Aave**: A decentralized platform that allows users to lend and borrow cryptocurrencies.
+2. **Compound**: Enables users to earn interest on their crypto holdings by lending them out.
+3. **MakerDAO**: A decentralized autonomous organization that facilitates loans using Ethereum as collateral.
+## Blockchain Investment Strategies
+### Diversifying with Blockchain Assets
+Investing in blockchain technology offers unique opportunities. From cryptocurrencies to tokenized assets, investors can diversify their portfolios significantly. Understanding the differences between blockchain vs bitcoin can help investors make informed decisions in this evolving landscape.
+### Key Investment Strategies
+1. **Long-Term Holding (HODLing)**: Buying and holding assets for an extended period to benefit from potential appreciation.
+2. **Staking**: Participating in network validation processes to earn rewards while holding cryptocurrencies.
+3. **Yield Farming**: Providing liquidity to decentralized finance (DeFi) platforms in exchange for interest or tokens.
+### Risks and Considerations
+While blockchain investments can yield high returns, they also come with risks, including volatility and regulatory uncertainties. Investors should conduct thorough research and consider their risk tolerance before diving in. Staying updated on crypto market trends is essential for navigating these risks effectively.
 ## Conclusion
-Blockchain technology and smart contracts are reshaping the financial industry by enhancing security, efficiency, and transparency. Understanding how blockchain technology works and recognizing the benefits of blockchain in finance is essential for anyone looking to leverage its potential. 
+Blockchain technology is reshaping the financial landscape in profound ways. From facilitating faster payments to creating innovative lending platforms and investment strategies, its impact is undeniable. As the FinTech industry continues to evolve, understanding these elements will be crucial for anyone looking to stay ahead in this dynamic environment.
 ### Actionable Takeaways
-- **Educate Yourself**: Explore online courses and books to gain a solid foundation in blockchain technology.
-- **Engage with the Community**: Join forums and attend events to connect with other blockchain enthusiasts.
-- **Experiment with Smart Contracts**: Use platforms like Ethereum to create and deploy your own smart contracts.
-- **Stay Updated**: Follow industry news and trends to keep abreast of the latest developments in blockchain.
-Are you ready to dive into the world of blockchain technology? Start exploring today, and unlock the potential of this groundbreaking innovation! For more insights, tips, and resources, subscribe to our newsletter and stay ahead in the FinTech revolution.</t>
+- Explore blockchain payment solutions for faster and cheaper transactions.
+- Investigate decentralized lending platforms to access credit without intermediaries.
+- Diversify your investment portfolio by including blockchain assets and DeFi options.
+- Stay informed about regulatory changes that may affect blockchain technologies and crypto market trends.
+As you navigate the world of blockchain and FinTech, consider integrating these strategies into your financial practices. For more insights and updates on blockchain technology, subscribe to our newsletter and join our community of forward-thinking finance enthusiasts!</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['how does blockchain technology work', 'benefits of blockchain in finance', 'what is blockchain in Fin']</t>
+          <t>['blockchain vs bitcoin', 'crypto market trends', 'decentralized finance (De']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t># Exploring Blockchain Technology: Smart Contracts and Resources for All</t>
+          <t># Unlocking the Future: Blockchain, Cryptocurrency, and Digital Currency Services</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unlock your future in blockchain technology with our guide on essential blockchain resources, services, and smart contracts for students and professionals.</t>
+          <t>Discover how blockchain technology, smart contracts, and cryptocurrency services are revolutionizing FinTech. Explore the future of secure digital currency transactions and unlock the potential of this innovative technology today!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>In recent years, blockchain technology has emerged as a transformative force in the financial sector and beyond. As its applications expand, so too does the demand for skilled professionals and innovative services. For blockchain students and enthusiasts, understanding the intricacies of blockchain services and the nature of blockchain work is crucial for navigating this rapidly evolving landscape. In this article, we’ll explore the key components of blockchain services, the types of work available in the field, and how students can position themselves for success.
-## Understanding Blockchain Services
-Blockchain services encompass a wide range of offerings that leverage the unique capabilities of blockchain technology. These services are designed to enhance security, transparency, and efficiency across various industries.
-### Types of Blockchain Services
-1. **Consulting Services**  
-   Many companies seek to implement blockchain solutions but lack the necessary expertise. Consulting firms provide guidance on strategy, implementation, and best practices.
-2. **Development Services**  
-   Custom blockchain development is a significant area where developers build tailored solutions for businesses. This includes creating smart contracts, decentralized applications (dApps), and private blockchains.
-3. **Integration Services**  
-   Integrating blockchain with existing systems is vital for many organizations. Integration services help businesses incorporate blockchain into their current workflows seamlessly.
-4. **Maintenance and Support**  
-   Once a blockchain solution is deployed, ongoing maintenance and support are necessary to ensure smooth operation. This includes troubleshooting, updates, and security audits.
-## The Nature of Blockchain Work
-Blockchain work is diverse and can vary significantly based on the specific role and industry. Understanding the different types of positions available is essential for those looking to enter the field.
-### Key Roles in Blockchain Work
-1. **Blockchain Developer**  
-   Developers are responsible for building and maintaining blockchain systems. This role requires strong programming skills and knowledge of blockchain protocols.
-2. **Blockchain Analyst**  
-   Analysts assess blockchain projects, evaluate their potential impact, and provide insights on market trends. This role often requires a blend of technical and business acumen.
-3. **Blockchain Project Manager**  
-   Project managers oversee blockchain initiatives, ensuring they are delivered on time and within budget. Strong organizational and communication skills are crucial in this role.
-4. **Blockchain Compliance Specialist**  
-   As regulations around blockchain evolve, compliance specialists ensure that projects adhere to legal requirements. This role is becoming increasingly important in the FinTech sector.
-## Preparing as a Blockchain Student
-For students interested in pursuing a career in blockchain, it’s essential to equip themselves with the right skills and knowledge. Here are some strategies to consider:
-### Building Relevant Skills
-1. **Technical Proficiency**  
-   Understanding programming languages such as Solidity, JavaScript, or Python is fundamental for technical roles.
-2. **Business Acumen**  
-   Knowledge of financial systems and business operations can set you apart, especially for roles that bridge technology and business.
-3. **Networking**  
-   Engaging with industry professionals through conferences, seminars, and online forums can provide valuable insights and opportunities.
-4. **Certifications**  
-   Consider pursuing certifications in blockchain technology to enhance your resume and demonstrate your commitment to the field.
+          <t>In the rapidly evolving world of FinTech, innovation is the name of the game. As financial services become increasingly digitized, blockchain technology, smart contracts, and crypto services are leading the charge. Although these concepts may seem daunting at first, they hold the potential to revolutionize how we think about transactions, agreements, and security in finance. In this article, we’ll explore these groundbreaking technologies, their applications, and how they are reshaping the financial landscape.
+## Understanding Blockchain Technology
+Blockchain technology is the backbone of the cryptocurrency ecosystem and a foundational element for many FinTech innovations. At its core, blockchain is a distributed ledger that records transactions across multiple computers, ensuring that the data is secure, transparent, and immutable. This technology is also crucial for the development of digital currency.
+### Key Features of Blockchain
+- **Decentralization**: Unlike traditional financial systems, which rely on a central authority, blockchain operates on a peer-to-peer network. This reduces the risk of fraud and enhances security.
+- **Transparency**: Every transaction is recorded on the blockchain and is accessible to all participants, fostering trust among users.
+- **Immutability**: Once a transaction is recorded, it cannot be altered or deleted, ensuring the integrity of the data.
+These features make blockchain technology a powerful tool for various applications, from supply chain management to identity verification.
+## The Role of Smart Contracts
+Smart contracts are self-executing contracts with the terms of the agreement directly written into code. They run on blockchain networks, which means they inherit the security and transparency of the underlying technology.
+### Benefits of Smart Contracts
+- **Automation**: Smart contracts automatically execute transactions when predefined conditions are met. This reduces the need for intermediaries and minimizes delays.
+- **Cost Efficiency**: By eliminating middlemen, smart contracts can significantly lower transaction costs.
+- **Accuracy and Security**: With their code-based nature, smart contracts reduce the risk of human error and ensure that transactions are executed exactly as intended.
+Smart contracts have vast applications, including real estate transactions, insurance claims, and supply chain agreements.
+## Exploring Crypto Services
+Crypto services encompass a wide range of offerings related to cryptocurrencies. These include exchanges, wallets, and payment processing solutions that facilitate the buying, selling, and storing of digital assets.
+### Types of Crypto Services
+- **Exchanges**: Platforms where users can trade cryptocurrencies for other digital assets or fiat currencies. Examples include Coinbase and Binance.
+- **Wallets**: Digital wallets allow users to securely store and manage their cryptocurrencies. They can be hardware-based or software-based.
+- **Payment Solutions**: Companies like BitPay and CoinGate enable businesses to accept cryptocurrency payments, broadening their customer base.
+The growth of crypto services has made it easier for individuals and businesses to participate in the digital economy, driving the adoption of cryptocurrencies and digital currency.
 ## Conclusion
-Blockchain technology is reshaping industries and creating new opportunities for professionals and students alike. By understanding the various blockchain services, the nature of blockchain work, and how to prepare as a blockchain student, you can position yourself for a successful career in this exciting field. 
+In summary, blockchain technology, smart contracts, and crypto services are not just buzzwords; they represent a transformative shift in the financial sector. By leveraging these innovations, businesses can enhance security, reduce costs, and improve efficiency. As we move forward, understanding and embracing these technologies will be crucial for anyone involved in FinTech.
 ### Actionable Takeaways
-- Explore different types of blockchain services to identify areas of interest.
-- Research key roles in blockchain work to understand where your skills fit.
-- Focus on building both technical and business skills.
-- Network with industry professionals and seek mentorship opportunities.
-- Consider obtaining relevant certifications to enhance your qualifications.
-Are you ready to dive into the world of blockchain? Whether you’re a student eager to learn or a professional looking to pivot your career, now is the time to take action. Start by exploring blockchain courses, attending industry events, or connecting with blockchain communities online. The future of finance is unfolding, and it’s time to be part of it!
----
-In this revised version, the keyword "blockchain technology" is used more effectively to optimize density, while "smart contracts" and "blockchain resources" have been integrated to enhance SEO performance. The language has been simplified for better readability, and long sentences have been broken up for clarity.</t>
+- **Educate Yourself**: Stay informed about blockchain technology and its applications to leverage its benefits in your business.
+- **Explore Smart Contracts**: Consider how smart contracts can automate processes in your organization, saving time and reducing costs.
+- **Utilize Crypto Services**: Investigate various crypto services to find solutions that can enhance your financial operations and customer offerings.
+- **Network and Collaborate**: Join FinTech forums and networks to connect with industry experts and share insights on these technologies.
+Are you ready to dive deeper into the world of blockchain, smart contracts, and crypto services? Subscribe to our newsletter for the latest insights and updates, and empower your FinTech journey today!</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['blockchain technology', 'smart contracts', 'blockchain resources']</t>
+          <t>['blockchain', 'cryptocurrency', 'digital currency']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Future of Finance: Blockchain, Cryptocurrency, and Digital Currency Insights</t>
+          <t># Exploring Blockchain for Payments, Lending Platforms, and Investment Strategies</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Discover how blockchain, cryptocurrency, and digital currency are reshaping finance. Explore their impact and future potential in the evolving FinTech landscape.</t>
+          <t>Unlock the future of finance with our comprehensive guide to blockchain for payments, blockchain lending platforms, and blockchain investment strategies. Discover how these transformative technologies are reshaping money today and explore their potential to revolutionize your financial approach!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>The financial landscape is undergoing a significant transformation, driven by the rise of blockchain technology, cryptocurrency, and digital currencies. As these innovations reshape our understanding of money, investing, and transactions, grasping their interplay is essential for anyone in the FinTech space. Whether you’re an experienced investor or a curious newcomer, exploring these concepts can unlock opportunities that once seemed like science fiction.
+          <t>In the rapidly evolving landscape of finance, three terms have emerged as pivotal: blockchain, cryptocurrency, and digital currency. These concepts are not just buzzwords; they represent a fundamental shift in how we perceive and interact with money. Whether you're a seasoned investor or a curious newcomer, understanding these technologies is essential for navigating the future of finance. Let’s explore how they interconnect and what they mean for you.
 ## Understanding Blockchain Technology
 ### What is Blockchain?
-At its core, blockchain is a decentralized ledger technology that securely records transactions across multiple computers. This structure means that no single entity controls the data, making it resistant to tampering and fraud.
-### How Does Blockchain Work?
-- **Decentralization**: Unlike traditional databases, blockchain operates on a peer-to-peer network, allowing multiple participants to validate transactions.
-- **Transparency**: Each transaction is recorded in a block and linked to previous blocks, creating an immutable chain that anyone can audit.
-- **Security**: Advanced cryptographic techniques protect the data, ensuring that once a transaction is added, it cannot be altered without consensus from the network.
+At its core, blockchain is a decentralized digital ledger that records transactions across multiple computers. This technology ensures that once a transaction is recorded, it cannot be altered retroactively without the consensus of the network. This feature enhances security and transparency, making blockchain a revolutionary technology in various sectors, especially in **blockchain for payments**.
+### How Blockchain Works
+1. **Decentralization**: Unlike traditional databases controlled by a single entity, blockchain operates on a peer-to-peer network, distributing data across all participants.
+2. **Consensus Mechanisms**: Transactions are validated through consensus algorithms, such as Proof of Work (PoW) or Proof of Stake (PoS). These mechanisms ensure that all parties agree on the transaction's validity.
+3. **Immutability**: Once a block is added to the chain, it is nearly impossible to modify, providing a secure and tamper-proof record.
 ## The Rise of Cryptocurrency
 ### What is Cryptocurrency?
-Cryptocurrency refers to digital or virtual currencies that utilize cryptography for security. Unlike traditional currencies issued by governments, cryptocurrencies operate on decentralized networks built on blockchain technology.
+Cryptocurrency is a type of digital or virtual currency that uses cryptography for security. Unlike traditional currencies issued by governments (fiat currency), cryptocurrencies operate on blockchain technology, making them decentralized and often resistant to government interference.
 ### Popular Cryptocurrencies
-- **Bitcoin (BTC)**: The first and most well-known cryptocurrency, often referred to as digital gold.
-- **Ethereum (ETH)**: Recognized for its smart contract functionality, enabling developers to build decentralized applications (dApps).
-- **Ripple (XRP)**: Focused on facilitating real-time cross-border payments, making it popular among financial institutions.
+- **Bitcoin (BTC)**: The first and most well-known cryptocurrency, created in 2009.
+- **Ethereum (ETH)**: Known for its smart contract functionality, allowing developers to build decentralized applications.
+- **Ripple (XRP)**: Focused on enabling real-time, cross-border payments using blockchain for payments.
 ## Digital Currency: The Next Evolution
 ### Defining Digital Currency
-Digital currency includes all forms of money in digital format, encompassing cryptocurrencies and central bank digital currencies (CBDCs). While cryptocurrencies are decentralized, CBDCs are issued and regulated by governments.
-### The Future of Digital Currency
-- **Adoption of CBDCs**: Many countries are exploring or piloting CBDCs to enhance payment systems and provide a stable digital alternative to cryptocurrencies.
-- **Integration with Traditional Finance**: As digital currencies gain traction, they are increasingly being integrated into existing financial systems, creating new avenues for transactions and investment.
-## The Intersection of Blockchain, Cryptocurrency, and Digital Currency
-### How They Work Together
-- **Blockchain as the Backbone**: All cryptocurrencies operate on blockchain technology, which provides the framework for secure transactions.
-- **Digital Currencies Utilizing Blockchain**: CBDCs, while government-backed, often leverage blockchain to enhance security and efficiency.
-### Implications for the Financial Sector
-The convergence of these technologies heralds a new era for the financial industry, characterized by:
-- **Increased Efficiency**: Streamlining processes that traditionally required intermediaries.
-- **Cost Reduction**: Lower transaction fees and faster settlement times.
-- **Enhanced Security**: Reducing fraud and increasing trust in digital transactions.
+Digital currency encompasses all forms of money that are stored and transacted electronically. This includes cryptocurrencies but also extends to digital versions of fiat currencies, such as central bank digital currencies (CBDCs).
+### The Role of Central Bank Digital Currencies (CBDCs)
+- **Government-Backed**: CBDCs are issued and regulated by a country's central bank, providing a stable alternative to cryptocurrencies.
+- **Enhanced Payment Systems**: CBDCs aim to improve transaction efficiency, reduce costs, and provide financial inclusion for unbanked populations.
+## The Interconnection of Blockchain, Cryptocurrency, and Digital Currency
+Understanding how these elements work together is crucial. Blockchain provides the infrastructure for cryptocurrencies, while digital currencies represent the broader evolution of money in the digital age. The synergy between these technologies, including **blockchain lending platforms**, is shaping the future of finance. This integration makes transactions more secure, efficient, and transparent.
+## Blockchain Lending Platforms
+### What are Blockchain Lending Platforms?
+Blockchain lending platforms use blockchain technology to facilitate loans and borrowing. These platforms enable peer-to-peer lending, allowing individuals to lend or borrow without traditional financial intermediaries. This approach can lower costs and increase accessibility.
+### Benefits of Blockchain Lending Platforms
+- **Transparency**: All transactions are recorded on the blockchain, ensuring a clear and immutable record.
+- **Speed**: Transactions can be completed rapidly, often in real-time.
+- **Accessibility**: These platforms can provide financial services to those who are unbanked or underbanked.
+## Blockchain Investment Strategies
+### Exploring Blockchain Investment Strategies
+Investing in blockchain technology can be lucrative if approached wisely. Various **blockchain investment strategies** include investing in cryptocurrencies, participating in initial coin offerings (ICOs), or investing in companies that utilize blockchain technology.
+### Tips for Effective Blockchain Investment Strategies
+- **Research Thoroughly**: Understand the technology and market trends before investing.
+- **Diversify Your Portfolio**: Consider a mix of cryptocurrencies and blockchain projects to spread risk.
+- **Stay Informed**: Keep up with news and developments in blockchain technology and regulations.
 ## Conclusion
-The interplay between blockchain, cryptocurrency, and digital currency is reshaping the financial landscape. Understanding these concepts is crucial for anyone looking to navigate the evolving world of FinTech. As we move forward, staying informed about these technologies will not only help you adapt but also position you for future opportunities.
+In summary, blockchain, cryptocurrency, and digital currency are interlinked concepts that are transforming the financial landscape. Blockchain serves as the backbone for cryptocurrencies, which offer a decentralized alternative to traditional money. Meanwhile, digital currencies, especially CBDCs, represent the next step in the evolution of currency, blending the benefits of both worlds. Additionally, the rise of **blockchain lending platforms** and effective **blockchain investment strategies** highlights the versatility of this technology in modern finance.
 ### Actionable Takeaways
-- **Educate Yourself**: Stay informed about blockchain technology and its applications.
-- **Explore Cryptocurrency**: Consider investing in cryptocurrencies to diversify your portfolio.
-- **Follow CBDC Developments**: Keep an eye on your government’s stance on digital currencies and their potential impact.
-- **Network with Experts**: Engage with professionals in the FinTech space to share insights and strategies.
-- **Consider Security Measures**: Always prioritize security when dealing with digital currencies and cryptocurrencies.
-Are you ready to embrace the future of finance? Join our community of FinTech enthusiasts and stay updated on the latest trends and insights. Subscribe to our newsletter today!</t>
+- **Educate Yourself**: Stay informed about blockchain technology and its implications for finance.
+- **Explore Cryptocurrencies**: Consider diversifying your investment portfolio with cryptocurrencies.
+- **Monitor CBDC Developments**: Keep an eye on your country’s stance on central bank digital currencies as they may impact traditional banking systems.
+- **Engage with the Community**: Join forums and social media groups to discuss trends and share knowledge.
+### Call to Action
+Are you ready to dive deeper into the world of blockchain, cryptocurrency, and digital currency? Subscribe to our newsletter for the latest insights and trends in FinTech, and join our community of forward-thinking finance enthusiasts. The future of money is here—don’t get left behind!</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['blockchain', 'cryptocurrency', 'digital currency']</t>
+          <t>['blockchain for payments', 'blockchain lending platforms', 'blockchain investment strategies']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t># Understanding Blockchain Services: How Blockchain Technology Works for Students</t>
+          <t># Understanding Blockchain Technology: Smart Contracts and Crypto Services</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Explore how blockchain technology works and its benefits in finance. Discover blockchain services for students and how blockchain work shapes future transactions.</t>
+          <t>Discover the key differences between blockchain technology and Bitcoin, explore smart contracts, and learn about crypto services in our comprehensive guide to decentralized finance (DeFi).</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>In the rapidly evolving world of finance, blockchain technology has emerged as a revolutionary force, reshaping how transactions are conducted and data is managed. As financial institutions and tech companies alike explore its potential, understanding the fundamentals of blockchain becomes essential. But how does blockchain technology work? What are its benefits in the finance sector? And what exactly is blockchain in FinTech? This article will delve into these questions, providing you with a comprehensive overview of blockchain's role in finance.
-## What Is Blockchain in Finance?
-Blockchain is a decentralized digital ledger technology that records transactions across multiple computers, ensuring the security and transparency of data. Unlike traditional ledgers maintained by a central authority, blockchain operates through a network of nodes. Each node holds a copy of the entire ledger, making it nearly impossible to alter past records. This decentralized nature enhances trust and security, which is critical for blockchain services in the financial sector.
-### Key Characteristics of Blockchain
-- **Decentralization**: No single entity controls the entire network, reducing the risk of fraud.
-- **Transparency**: All transactions are visible to participants, fostering trust.
-- **Immutability**: Once recorded, data cannot be altered without consensus from the network.
-Understanding these characteristics is crucial for grasping how blockchain technology can transform financial processes and how blockchain work can be applied effectively.
-## How Does Blockchain Technology Work?
-At its core, blockchain technology works by creating blocks of data that are chained together in chronological order. Each block contains a list of transactions, a timestamp, and a cryptographic hash of the previous block. This structure ensures that all blocks are interlinked, creating a secure and unchangeable record of transactions.
-### The Process of Blockchain Transactions
-1. **Transaction Initiation**: A user initiates a transaction, which is then broadcast to the network.
-2. **Validation**: Nodes in the network verify the transaction using consensus algorithms, such as Proof of Work or Proof of Stake.
-3. **Block Creation**: Once validated, the transaction is grouped with others into a new block.
-4. **Chain Update**: The new block is added to the existing blockchain, and all nodes update their copies of the ledger.
-This process not only enhances security but also increases efficiency, reducing the time and cost associated with traditional financial transactions. For blockchain students, understanding this process is vital for future work in the industry.
-## Benefits of Blockchain in Finance
-The adoption of blockchain technology in finance brings a plethora of benefits that can revolutionize the industry. Here are some of the most significant advantages:
-### Enhanced Security
-Blockchain’s cryptographic techniques make it highly secure against hacking and fraud. Each transaction is encrypted and linked to the previous one, creating a robust security framework that is essential for blockchain services.
-### Reduced Costs
-By eliminating intermediaries, such as banks and payment processors, blockchain can significantly lower transaction costs. This is particularly beneficial for cross-border payments, where fees can be exorbitant.
-### Increased Efficiency
-Traditional financial systems often involve lengthy processes and paperwork. Blockchain streamlines these processes, allowing for faster transactions and settlements. This efficiency is critical for those involved in blockchain work.
-### Improved Transparency
-With all transactions recorded on a public ledger, stakeholders can easily access transaction histories, promoting accountability and trust.
-### Financial Inclusion
-Blockchain technology can provide access to financial services for unbanked populations, enabling them to participate in the global economy. This aspect is especially important for blockchain students interested in social impact.
-## Real-World Applications of Blockchain in Finance
-Several financial institutions and companies are already leveraging blockchain technology to enhance their operations. Here are a few notable examples:
-### Cryptocurrencies
-Digital currencies like Bitcoin and Ethereum are built on blockchain technology, providing a decentralized alternative to traditional currencies.
-### Smart Contracts
-These self-executing contracts automatically enforce and execute terms when conditions are met, reducing the need for intermediaries.
-### Supply Chain Finance
-Blockchain can enhance transparency and traceability in supply chains, improving financing processes for businesses.
+          <t>In the ever-evolving landscape of financial technology, few topics generate as much interest and debate as blockchain technology, Bitcoin, and decentralized finance (DeFi). As we navigate through the complexities of these concepts, understanding their distinctions and interconnections becomes crucial for both investors and enthusiasts. Whether you’re a seasoned trader or a curious newcomer, this article will unravel the nuances of blockchain technology versus Bitcoin, explore current crypto market trends, and delve into the burgeoning world of decentralized finance.
+## Understanding Blockchain Technology vs. Bitcoin
+### What is Blockchain Technology?
+Blockchain technology is the underlying framework that enables the existence of cryptocurrencies, including Bitcoin. It is a decentralized digital ledger that records transactions across multiple computers, ensuring that the data is secure, transparent, and immutable. Each block in the chain contains a number of transactions. Once a block is filled, it is linked to the previous block, forming a chronological chain.
+### What is Bitcoin?
+Bitcoin, on the other hand, is a specific cryptocurrency that operates on its own blockchain. Created in 2009 by an anonymous person or group known as Satoshi Nakamoto, Bitcoin serves as a digital currency for peer-to-peer transactions. It has gained immense popularity as a store of value and a speculative investment.
+### Key Differences Between Blockchain Technology and Bitcoin
+- **Functionality**: Blockchain technology is a framework, while Bitcoin is a currency.
+- **Use Cases**: Blockchain technology has applications beyond cryptocurrencies, such as supply chain management and voting systems. Bitcoin primarily serves as a medium of exchange and a digital asset.
+- **Ownership**: Blockchain technology can be owned and operated by anyone, while Bitcoin ownership is tied to individual wallets.
+## Current Crypto Market Trends
+### Market Volatility
+The crypto market is known for its volatility. Prices can surge or plummet within hours, influenced by regulatory news, technological advancements, and macroeconomic trends. Understanding these dynamics is essential for making informed investment decisions.
+### Institutional Adoption
+In recent years, institutional investors have begun to embrace cryptocurrencies. Major companies and financial institutions are allocating funds to Bitcoin and other digital assets, signaling a shift in perception from speculative assets to legitimate investment vehicles.
+### Regulatory Developments
+Regulatory frameworks surrounding cryptocurrencies are evolving. Governments worldwide are establishing guidelines to protect investors and ensure market integrity. Keeping abreast of these changes is vital for anyone involved in the crypto space.
+## Decentralized Finance (DeFi)
+### What is DeFi?
+Decentralized finance, or DeFi, refers to a suite of financial services built on blockchain technology that operates without intermediaries. This ecosystem allows users to lend, borrow, trade, and earn interest on their crypto assets in a transparent and secure manner.
+### Key Components of DeFi
+- **Decentralized Exchanges (DEXs)**: Platforms that allow users to trade cryptocurrencies directly with one another without a central authority.
+- **Lending Protocols**: Services that enable users to lend their assets to others and earn interest, often through smart contracts.
+- **Stablecoins**: Cryptocurrencies pegged to traditional assets, providing stability in the volatile crypto market.
+### The Future of DeFi
+The DeFi sector has experienced explosive growth, with total value locked (TVL) in DeFi protocols reaching billions of dollars. As more users seek alternatives to traditional banking, DeFi is poised to reshape the financial landscape.
 ## Conclusion
-In summary, blockchain technology is reshaping the financial landscape by providing a secure, efficient, and transparent method for conducting transactions. Its decentralized nature, combined with its numerous benefits, makes it a game-changer in the FinTech space. As more organizations adopt this technology, understanding its workings and advantages will be crucial for anyone involved in finance.
+In summary, understanding the distinctions between blockchain technology and Bitcoin is essential for navigating the crypto ecosystem. The current market trends indicate a growing acceptance of cryptocurrencies among institutional investors and a shift towards regulatory clarity. Meanwhile, decentralized finance is revolutionizing the way we think about financial services, offering innovative solutions that bypass traditional intermediaries.
 ### Actionable Takeaways
-- **Learn the Basics**: Familiarize yourself with blockchain terminology and concepts.
-- **Explore Use Cases**: Research how different sectors are implementing blockchain technology.
-- **Stay Informed**: Follow industry news and developments related to blockchain and FinTech.
-- **Consider Integration**: If you’re in finance, explore how your organization can leverage blockchain for efficiency and security.
-- **Engage with Experts**: Attend webinars and discussions to deepen your understanding of blockchain applications.
-Are you ready to embrace the future of finance? Start exploring blockchain technology today and see how it can transform your business operations. Whether you're a seasoned professional or just starting, the potential of blockchain in finance is too significant to ignore. Join the conversation in the comments below or share your thoughts on how blockchain can shape the future.</t>
+- **Educate Yourself**: Stay informed about blockchain technology and its applications.
+- **Monitor Market Trends**: Follow crypto market trends to make informed investment decisions.
+- **Explore DeFi**: Investigate decentralized finance platforms to leverage your crypto assets effectively.
+- **Understand Regulations**: Keep up with regulatory developments to navigate the crypto landscape safely.
+- **Diversify Investments**: Consider a diversified approach to investing in cryptocurrencies, blockchain technology, and DeFi projects.
+As you delve deeper into the world of FinTech, remember that knowledge is your best asset. Stay curious, stay informed, and don’t hesitate to explore the myriad opportunities that blockchain technology, Bitcoin, and decentralized finance have to offer.
+### Call to Action
+Ready to take your FinTech journey to the next level? Subscribe to our newsletter for the latest insights, trends, and expert analysis in the world of cryptocurrencies and blockchain technology. Join our community today and stay ahead in this dynamic market!</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['blockchain services', 'blockchain work', 'blockchain students']</t>
+          <t>['blockchain technology', 'smart contracts', 'crypto services']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>

--- a/outputs/automated_blog_posts.xlsx
+++ b/outputs/automated_blog_posts.xlsx
@@ -463,58 +463,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>How Blockchain, Bitcoin, and DeFi Shape Crypto Market Trends Today</t>
+          <t># Exploring AWS Blockchain: Smart Contracts, DeFi, and Crypto Wallets</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Discover how blockchain is revolutionizing payments, lending platforms, and investment strategies in the crypto market trends, offering faster, secure, and transparent financial solutions. Explore the impact of decentralized finance (DeFi) on the crypto market trends and understand the differences between blockchain and Bitcoin for smarter investment decisions.</t>
+          <t>Unlock the future of finance with AWS blockchain, smart contracts, decentralized finance, and crypto wallets. Discover how AWS blockchain and these innovations empower your financial journey!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>In recent years, the financial landscape has undergone a seismic shift, largely driven by the advent of blockchain technology. As businesses and consumers alike seek faster, more secure, and transparent financial solutions, blockchain has emerged as a game-changer. This article will explore how blockchain is revolutionizing payments, lending platforms, and investment strategies, offering insights for both seasoned professionals and newcomers to the FinTech arena.
-## Blockchain for Payments
-### The Evolution of Payment Systems
-Traditional payment systems often involve multiple intermediaries, leading to delays and increased costs. Blockchain technology streamlines this process by enabling peer-to-peer transactions without the need for banks or payment processors. This decentralization not only speeds up transactions but also enhances security.
-### Benefits of Using Blockchain for Payments
-1. **Speed**: Transactions can be completed in minutes, regardless of geographical locations.
-2. **Cost-Effectiveness**: Lower transaction fees compared to traditional payment methods.
-3. **Security**: Blockchain's cryptographic nature ensures that transactions are secure and tamper-proof.
-4. **Transparency**: All transactions are recorded on a public ledger, enhancing trust among users.
-## Blockchain Lending Platforms
-### The Rise of Decentralized Lending
-Blockchain lending platforms are transforming the way individuals and businesses access credit. By removing intermediaries, these platforms allow for direct lending between parties, fostering a more inclusive financial ecosystem. This shift is a key aspect of decentralized finance (DeFi), which is gaining traction in the crypto market trends.
-### Key Features of Blockchain Lending Platforms
-- **Smart Contracts**: Automated agreements that execute terms without the need for a middleman.
-- **Tokenization**: The ability to represent assets as digital tokens, making it easier to trade and lend.
-- **Global Reach**: Access to a worldwide pool of lenders and borrowers, breaking down geographical barriers.
-### Popular Blockchain Lending Platforms
-1. **Aave**: A decentralized platform that allows users to lend and borrow cryptocurrencies.
-2. **Compound**: Enables users to earn interest on their crypto holdings by lending them out.
-3. **MakerDAO**: A decentralized autonomous organization that facilitates loans using Ethereum as collateral.
-## Blockchain Investment Strategies
-### Diversifying with Blockchain Assets
-Investing in blockchain technology offers unique opportunities. From cryptocurrencies to tokenized assets, investors can diversify their portfolios significantly. Understanding the differences between blockchain vs bitcoin can help investors make informed decisions in this evolving landscape.
-### Key Investment Strategies
-1. **Long-Term Holding (HODLing)**: Buying and holding assets for an extended period to benefit from potential appreciation.
-2. **Staking**: Participating in network validation processes to earn rewards while holding cryptocurrencies.
-3. **Yield Farming**: Providing liquidity to decentralized finance (DeFi) platforms in exchange for interest or tokens.
-### Risks and Considerations
-While blockchain investments can yield high returns, they also come with risks, including volatility and regulatory uncertainties. Investors should conduct thorough research and consider their risk tolerance before diving in. Staying updated on crypto market trends is essential for navigating these risks effectively.
+          <t>In the rapidly evolving world of FinTech, three concepts are taking center stage: smart contracts, decentralized finance (DeFi), and crypto wallets. These innovations are reshaping traditional financial systems and empowering individuals with unprecedented control over their assets. If you've ever wondered how these technologies intersect and what they mean for the future of finance, you're in the right place. Let’s dive into each of these components and explore their significance in today’s digital economy, particularly through the lens of AWS blockchain technology.
+## Understanding Smart Contracts
+### What Are Smart Contracts?
+Smart contracts are self-executing contracts where the terms of the agreement are directly written into code. They run on blockchain technology, ensuring transparency and security. When predetermined conditions are met, the contract automatically executes the agreed-upon actions without the need for intermediaries. This process can be enhanced by using AWS blockchain services, which provide a robust framework for deploying smart contracts.
+### Benefits of Smart Contracts
+- **Efficiency**: Smart contracts automate processes, significantly reducing the time and effort involved in traditional contract execution.
+- **Cost-Effective**: By eliminating intermediaries, they lower transaction costs.
+- **Security**: The decentralized nature of blockchain, especially when leveraging AWS blockchain, makes smart contracts less vulnerable to tampering and fraud.
+## The Rise of Decentralized Finance (DeFi)
+### What is DeFi?
+Decentralized finance, or DeFi, refers to a financial ecosystem built on blockchain technology that operates without traditional banks or intermediaries. It encompasses a wide range of financial services, including lending, borrowing, trading, and insurance, all accessible through decentralized applications (dApps). Many DeFi platforms utilize AWS blockchain technology to enhance their security and scalability.
+### Key Features of DeFi
+- **Accessibility**: Anyone with an internet connection can access DeFi platforms, making financial services available to the unbanked population.
+- **Transparency**: All transactions are recorded on the blockchain, providing a level of transparency not typically found in traditional finance.
+- **Interoperability**: DeFi platforms can easily integrate with one another, allowing users to move assets seamlessly across different services.
+## The Role of Crypto Wallets
+### What Are Crypto Wallets?
+Crypto wallets are digital tools that allow users to store, send, and receive cryptocurrencies. They come in various forms, including hardware wallets, software wallets, and mobile wallets, each offering different levels of security and convenience. Many crypto wallets also support transactions on AWS blockchain networks, enhancing their functionality.
+### Types of Crypto Wallets
+- **Hot Wallets**: These are connected to the internet and are generally more convenient for everyday transactions. However, they are more susceptible to hacking.
+- **Cold Wallets**: These are offline storage solutions, such as hardware wallets, that provide enhanced security for long-term holding of cryptocurrencies.
+### Choosing the Right Wallet
+When selecting a crypto wallet, consider the following factors:
+- **Security**: Look for wallets with strong encryption and backup options.
+- **User Experience**: Choose a wallet that offers an intuitive interface, especially if you are new to crypto.
+- **Compatibility**: Ensure the wallet supports the cryptocurrencies you plan to hold.
 ## Conclusion
-Blockchain technology is reshaping the financial landscape in profound ways. From facilitating faster payments to creating innovative lending platforms and investment strategies, its impact is undeniable. As the FinTech industry continues to evolve, understanding these elements will be crucial for anyone looking to stay ahead in this dynamic environment.
+As we’ve explored, smart contracts, decentralized finance, and crypto wallets are revolutionizing the financial landscape. They offer increased efficiency, transparency, and accessibility, empowering individuals to take control of their financial futures. Understanding these concepts, particularly in relation to AWS blockchain, is crucial for anyone looking to navigate the modern FinTech environment.
 ### Actionable Takeaways
-- Explore blockchain payment solutions for faster and cheaper transactions.
-- Investigate decentralized lending platforms to access credit without intermediaries.
-- Diversify your investment portfolio by including blockchain assets and DeFi options.
-- Stay informed about regulatory changes that may affect blockchain technologies and crypto market trends.
-As you navigate the world of blockchain and FinTech, consider integrating these strategies into your financial practices. For more insights and updates on blockchain technology, subscribe to our newsletter and join our community of forward-thinking finance enthusiasts!</t>
+- **Educate Yourself on Smart Contracts**: Familiarize yourself with how they work and their potential applications, especially through AWS blockchain.
+- **Explore DeFi Platforms**: Investigate various DeFi services to find those that align with your financial goals.
+- **Choose a Secure Crypto Wallet**: Prioritize security and usability when selecting a wallet for your digital assets.
+- **Stay Informed**: Follow FinTech news to keep up with emerging trends and technologies.
+### Call to Action
+Ready to take the plunge into the world of smart contracts, decentralized finance, and crypto wallets? Subscribe to our newsletter for the latest insights and strategies to enhance your financial</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['blockchain vs bitcoin', 'crypto market trends', 'decentralized finance (De']</t>
+          <t>['AWS blockchain']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -526,51 +524,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t># Unlocking the Future: Blockchain, Cryptocurrency, and Digital Currency Services</t>
+          <t># Discover Blockchain Technology: Resources and Services to Use It</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Discover how blockchain technology, smart contracts, and cryptocurrency services are revolutionizing FinTech. Explore the future of secure digital currency transactions and unlock the potential of this innovative technology today!</t>
+          <t>Unlock the potential of blockchain technology! Explore essential blockchain resources, learn blockchain fundamentals, and discover how blockchain services can transform digital services. Embrace the future with effective blockchain technology applications.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>In the rapidly evolving world of FinTech, innovation is the name of the game. As financial services become increasingly digitized, blockchain technology, smart contracts, and crypto services are leading the charge. Although these concepts may seem daunting at first, they hold the potential to revolutionize how we think about transactions, agreements, and security in finance. In this article, we’ll explore these groundbreaking technologies, their applications, and how they are reshaping the financial landscape.
-## Understanding Blockchain Technology
-Blockchain technology is the backbone of the cryptocurrency ecosystem and a foundational element for many FinTech innovations. At its core, blockchain is a distributed ledger that records transactions across multiple computers, ensuring that the data is secure, transparent, and immutable. This technology is also crucial for the development of digital currency.
+          <t>In the ever-evolving landscape of finance and technology, blockchain has emerged as a revolutionary force. Its potential to transform digital services is immense, making it an essential topic for anyone involved in FinTech. Whether you're a seasoned professional or just starting your journey, understanding how to leverage blockchain can set you apart in a competitive market. This post will guide you through the essentials of blockchain technology, including valuable blockchain resources and blockchain services, how to use it effectively, and its applications in digital services.
+## What is Blockchain?
+Blockchain is a decentralized digital ledger that records transactions across multiple computers. This technology ensures that the recorded transactions cannot be altered retroactively, providing security and transparency.
 ### Key Features of Blockchain
-- **Decentralization**: Unlike traditional financial systems, which rely on a central authority, blockchain operates on a peer-to-peer network. This reduces the risk of fraud and enhances security.
-- **Transparency**: Every transaction is recorded on the blockchain and is accessible to all participants, fostering trust among users.
-- **Immutability**: Once a transaction is recorded, it cannot be altered or deleted, ensuring the integrity of the data.
-These features make blockchain technology a powerful tool for various applications, from supply chain management to identity verification.
-## The Role of Smart Contracts
-Smart contracts are self-executing contracts with the terms of the agreement directly written into code. They run on blockchain networks, which means they inherit the security and transparency of the underlying technology.
-### Benefits of Smart Contracts
-- **Automation**: Smart contracts automatically execute transactions when predefined conditions are met. This reduces the need for intermediaries and minimizes delays.
-- **Cost Efficiency**: By eliminating middlemen, smart contracts can significantly lower transaction costs.
-- **Accuracy and Security**: With their code-based nature, smart contracts reduce the risk of human error and ensure that transactions are executed exactly as intended.
-Smart contracts have vast applications, including real estate transactions, insurance claims, and supply chain agreements.
-## Exploring Crypto Services
-Crypto services encompass a wide range of offerings related to cryptocurrencies. These include exchanges, wallets, and payment processing solutions that facilitate the buying, selling, and storing of digital assets.
-### Types of Crypto Services
-- **Exchanges**: Platforms where users can trade cryptocurrencies for other digital assets or fiat currencies. Examples include Coinbase and Binance.
-- **Wallets**: Digital wallets allow users to securely store and manage their cryptocurrencies. They can be hardware-based or software-based.
-- **Payment Solutions**: Companies like BitPay and CoinGate enable businesses to accept cryptocurrency payments, broadening their customer base.
-The growth of crypto services has made it easier for individuals and businesses to participate in the digital economy, driving the adoption of cryptocurrencies and digital currency.
+- **Decentralization**: Unlike traditional databases, blockchain operates on a peer-to-peer network, reducing the risk of a single point of failure.
+- **Immutability**: Once a transaction is recorded, it cannot be changed, ensuring data integrity.
+- **Transparency**: All participants in the network have access to the same information, fostering trust among users.
+Understanding these features is crucial as you embark on your journey to learn about blockchain technology and its many resources.
+## How to Use Blockchain in Your Business
+Once you grasp the fundamentals, the next step is learning how to use blockchain effectively. Here are several ways to implement this technology in your business.
+### 1. Smart Contracts
+Smart contracts are self-executing contracts with the terms of the agreement directly written into code. They automate processes, reducing the need for intermediaries.
+#### Benefits of Smart Contracts
+- **Efficiency**: Automate tasks to save time and reduce human error.
+- **Cost-Effective**: Minimize costs associated with third-party involvement.
+- **Security**: Enhance security through cryptographic protocols.
+### 2. Supply Chain Management
+Blockchain can revolutionize supply chain management by providing real-time tracking of goods.
+#### Advantages of Using Blockchain for Supply Chains
+- **Traceability**: Easily track the origin and journey of products.
+- **Transparency**: All stakeholders can access the same data, improving accountability.
+- **Fraud Prevention**: Secure transactions reduce the risk of fraud.
+### 3. Digital Identity Verification
+Blockchain can enhance security in digital identity management, making it easier to verify identities without compromising personal data.
+#### How Blockchain Improves Digital Identity
+- **Decentralization**: Reduces the risk of identity theft by eliminating central repositories.
+- **User Control**: Individuals maintain control over their personal information.
+- **Streamlined Processes**: Simplifies verification processes for businesses and consumers alike.
+## Blockchain for Digital Services
+The impact of blockchain on digital services is profound. From financial transactions to data storage, its applications are vast.
+### 1. Financial Transactions
+Blockchain technology has transformed how financial transactions are conducted, making them faster and more secure.
+#### Key Benefits
+- **Lower Transaction Costs**: Reduce fees associated with traditional banking.
+- **Faster Processing**: Transactions can be completed in real-time.
+- **Global Reach**: Facilitate cross-border transactions without intermediaries.
+### 2. Data Storage Solutions
+Blockchain can provide secure and efficient data storage solutions, particularly for sensitive information.
+#### Benefits of Blockchain Data Storage
+- **Enhanced Security**: Data is encrypted and distributed across a network.
+- **Reliability**: Reduced risk of data loss due to decentralization.
+- **Cost-Effectiveness**: Lower costs compared to traditional data storage solutions.
 ## Conclusion
-In summary, blockchain technology, smart contracts, and crypto services are not just buzzwords; they represent a transformative shift in the financial sector. By leveraging these innovations, businesses can enhance security, reduce costs, and improve efficiency. As we move forward, understanding and embracing these technologies will be crucial for anyone involved in FinTech.
+As we’ve explored, blockchain is not just a buzzword; it’s a transformative technology that offers numerous benefits for digital services. By learning about blockchain and utilizing various blockchain resources, you can unlock new opportunities for efficiency, security, and transparency in your business. Additionally, leveraging blockchain services can further enhance your operations.
 ### Actionable Takeaways
-- **Educate Yourself**: Stay informed about blockchain technology and its applications to leverage its benefits in your business.
-- **Explore Smart Contracts**: Consider how smart contracts can automate processes in your organization, saving time and reducing costs.
-- **Utilize Crypto Services**: Investigate various crypto services to find solutions that can enhance your financial operations and customer offerings.
-- **Network and Collaborate**: Join FinTech forums and networks to connect with industry experts and share insights on these technologies.
-Are you ready to dive deeper into the world of blockchain, smart contracts, and crypto services? Subscribe to our newsletter for the latest insights and updates, and empower your FinTech journey today!</t>
+- **Start Learning**: Explore online courses and resources to deepen your understanding of blockchain technology.
+- **Implement Smart Contracts**: Consider integrating smart contracts into your operations for increased efficiency.
+- **Enhance Supply Chain Transparency**: Use blockchain to track products and ensure accountability.
+- **Secure Digital Identities**: Investigate blockchain solutions for managing digital identities securely.
+- **Adopt Blockchain for Transactions**: Transition to blockchain for faster, cost-effective financial transactions.
+Are you ready to dive deeper into the world of blockchain? Join our community of FinTech enthusiasts today and start your journey towards mastering this revolutionary technology. Your future in finance awaits!</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['blockchain', 'cryptocurrency', 'digital currency']</t>
+          <t>['blockchain resources', 'blockchain services', 'blockchain technology']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -582,67 +601,62 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t># Exploring Blockchain for Payments, Lending Platforms, and Investment Strategies</t>
+          <t># Learn How to Use Blockchain for Digital Services: Key Resources</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unlock the future of finance with our comprehensive guide to blockchain for payments, blockchain lending platforms, and blockchain investment strategies. Discover how these transformative technologies are reshaping money today and explore their potential to revolutionize your financial approach!</t>
+          <t>Unlock the potential of blockchain technology and learn blockchain fundamentals with essential resources and services. Discover how to use blockchain to enhance your business success and explore blockchain for digital services today!</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>In the rapidly evolving landscape of finance, three terms have emerged as pivotal: blockchain, cryptocurrency, and digital currency. These concepts are not just buzzwords; they represent a fundamental shift in how we perceive and interact with money. Whether you're a seasoned investor or a curious newcomer, understanding these technologies is essential for navigating the future of finance. Let’s explore how they interconnect and what they mean for you.
+          <t>In recent years, blockchain technology has emerged as a revolutionary force in the FinTech landscape. Its potential to enhance security, transparency, and efficiency has captured the attention of businesses and consumers alike. As the industry continues to evolve, learning blockchain resources and services becomes crucial for anyone looking to harness the power of this technology. This article will explore the various facets of blockchain technology, the resources available to deepen your understanding, and the services that can propel your business forward.
 ## Understanding Blockchain Technology
-### What is Blockchain?
-At its core, blockchain is a decentralized digital ledger that records transactions across multiple computers. This technology ensures that once a transaction is recorded, it cannot be altered retroactively without the consensus of the network. This feature enhances security and transparency, making blockchain a revolutionary technology in various sectors, especially in **blockchain for payments**.
-### How Blockchain Works
-1. **Decentralization**: Unlike traditional databases controlled by a single entity, blockchain operates on a peer-to-peer network, distributing data across all participants.
-2. **Consensus Mechanisms**: Transactions are validated through consensus algorithms, such as Proof of Work (PoW) or Proof of Stake (PoS). These mechanisms ensure that all parties agree on the transaction's validity.
-3. **Immutability**: Once a block is added to the chain, it is nearly impossible to modify, providing a secure and tamper-proof record.
-## The Rise of Cryptocurrency
-### What is Cryptocurrency?
-Cryptocurrency is a type of digital or virtual currency that uses cryptography for security. Unlike traditional currencies issued by governments (fiat currency), cryptocurrencies operate on blockchain technology, making them decentralized and often resistant to government interference.
-### Popular Cryptocurrencies
-- **Bitcoin (BTC)**: The first and most well-known cryptocurrency, created in 2009.
-- **Ethereum (ETH)**: Known for its smart contract functionality, allowing developers to build decentralized applications.
-- **Ripple (XRP)**: Focused on enabling real-time, cross-border payments using blockchain for payments.
-## Digital Currency: The Next Evolution
-### Defining Digital Currency
-Digital currency encompasses all forms of money that are stored and transacted electronically. This includes cryptocurrencies but also extends to digital versions of fiat currencies, such as central bank digital currencies (CBDCs).
-### The Role of Central Bank Digital Currencies (CBDCs)
-- **Government-Backed**: CBDCs are issued and regulated by a country's central bank, providing a stable alternative to cryptocurrencies.
-- **Enhanced Payment Systems**: CBDCs aim to improve transaction efficiency, reduce costs, and provide financial inclusion for unbanked populations.
-## The Interconnection of Blockchain, Cryptocurrency, and Digital Currency
-Understanding how these elements work together is crucial. Blockchain provides the infrastructure for cryptocurrencies, while digital currencies represent the broader evolution of money in the digital age. The synergy between these technologies, including **blockchain lending platforms**, is shaping the future of finance. This integration makes transactions more secure, efficient, and transparent.
-## Blockchain Lending Platforms
-### What are Blockchain Lending Platforms?
-Blockchain lending platforms use blockchain technology to facilitate loans and borrowing. These platforms enable peer-to-peer lending, allowing individuals to lend or borrow without traditional financial intermediaries. This approach can lower costs and increase accessibility.
-### Benefits of Blockchain Lending Platforms
-- **Transparency**: All transactions are recorded on the blockchain, ensuring a clear and immutable record.
-- **Speed**: Transactions can be completed rapidly, often in real-time.
-- **Accessibility**: These platforms can provide financial services to those who are unbanked or underbanked.
-## Blockchain Investment Strategies
-### Exploring Blockchain Investment Strategies
-Investing in blockchain technology can be lucrative if approached wisely. Various **blockchain investment strategies** include investing in cryptocurrencies, participating in initial coin offerings (ICOs), or investing in companies that utilize blockchain technology.
-### Tips for Effective Blockchain Investment Strategies
-- **Research Thoroughly**: Understand the technology and market trends before investing.
-- **Diversify Your Portfolio**: Consider a mix of cryptocurrencies and blockchain projects to spread risk.
-- **Stay Informed**: Keep up with news and developments in blockchain technology and regulations.
+Blockchain technology is a decentralized digital ledger that records transactions across multiple computers. This ensures that the data is secure, transparent, and immutable. Here are some key components of blockchain technology:
+### Decentralization
+Unlike traditional databases, which are controlled by a single entity, blockchain operates on a peer-to-peer network. This decentralization reduces the risk of data manipulation and enhances security.
+### Immutability
+Once a transaction is recorded on the blockchain, it cannot be altered or deleted. This feature fosters trust among users. They can verify the authenticity of transactions without relying on a central authority.
+### Transparency
+Every participant in a blockchain network has access to the same information. This transparency can significantly reduce fraud and increase accountability in financial transactions.
+## Exploring Blockchain Resources
+To effectively navigate the world of blockchain, a variety of resources are available for both beginners and seasoned professionals. If you want to learn blockchain, consider these options:
+### Educational Platforms
+- **Online Courses:** Websites like Coursera and Udemy offer courses on blockchain fundamentals, smart contracts, and decentralized finance (DeFi).
+- **Webinars and Workshops:** Many organizations host live sessions that delve into specific blockchain topics. These sessions provide real-time interaction with experts.
+### Books and Publications
+- **"Mastering Bitcoin" by Andreas M. Antonopoulos:** A comprehensive guide to understanding Bitcoin and blockchain technology.
+- **Industry Reports:** Organizations like Deloitte and PwC regularly publish reports on blockchain trends and applications in FinTech.
+### Community Forums
+- **Reddit and Stack Exchange:** These platforms allow users to ask questions, share insights, and discuss the latest developments in blockchain technology. Engaging in these forums is a great way to learn blockchain.
+## Leveraging Blockchain Services
+As businesses recognize the benefits of blockchain, a range of services has emerged to help them implement this technology effectively. Here’s how to use blockchain in your business:
+### Smart Contracts
+Smart contracts are self-executing contracts with the terms of the agreement directly written into code. These contracts automate processes, reduce the need for intermediaries, and enhance trust.
+### Blockchain-as-a-Service (BaaS)
+Many cloud service providers, such as Microsoft Azure and Amazon Web Services (AWS), offer Blockchain-as-a-Service solutions. These services enable businesses to build, host, and operate their own blockchain applications without the complexity of managing the underlying infrastructure.
+### Identity Verification
+Blockchain technology can streamline identity verification processes, reducing fraud and enhancing security. Services that utilize blockchain for identity management offer a decentralized solution that protects user data.
+## The Future of Blockchain in FinTech
+The future of blockchain technology in the FinTech sector looks promising. As more organizations adopt blockchain solutions, we can expect to see:
+- Increased collaboration between traditional financial institutions and blockchain startups.
+- Enhanced regulatory frameworks to ensure compliance and security.
+- The emergence of new financial products and services that leverage blockchain for digital services.
 ## Conclusion
-In summary, blockchain, cryptocurrency, and digital currency are interlinked concepts that are transforming the financial landscape. Blockchain serves as the backbone for cryptocurrencies, which offer a decentralized alternative to traditional money. Meanwhile, digital currencies, especially CBDCs, represent the next step in the evolution of currency, blending the benefits of both worlds. Additionally, the rise of **blockchain lending platforms** and effective **blockchain investment strategies** highlights the versatility of this technology in modern finance.
+Blockchain technology is reshaping the financial landscape, offering innovative solutions that enhance security, transparency, and efficiency. By leveraging blockchain resources and services, businesses can stay ahead of the curve and unlock new opportunities for growth. 
 ### Actionable Takeaways
-- **Educate Yourself**: Stay informed about blockchain technology and its implications for finance.
-- **Explore Cryptocurrencies**: Consider diversifying your investment portfolio with cryptocurrencies.
-- **Monitor CBDC Developments**: Keep an eye on your country’s stance on central bank digital currencies as they may impact traditional banking systems.
-- **Engage with the Community**: Join forums and social media groups to discuss trends and share knowledge.
-### Call to Action
-Are you ready to dive deeper into the world of blockchain, cryptocurrency, and digital currency? Subscribe to our newsletter for the latest insights and trends in FinTech, and join our community of forward-thinking finance enthusiasts. The future of money is here—don’t get left behind!</t>
+- **Educate Yourself:** Take online courses or read books to deepen your understanding of blockchain technology.
+- **Join Community Forums:** Engage with others in the blockchain space to share knowledge and learn from industry experts.
+- **Explore BaaS Solutions:** Consider using Blockchain-as-a-Service to simplify the implementation of blockchain in your business.
+- **Implement Smart Contracts:** Automate processes with smart contracts to improve efficiency and reduce costs.
+- **Stay Informed:** Follow industry reports and news to keep up with the latest developments in blockchain technology.
+Are you ready to dive into the world of blockchain? Start exploring these resources and services today to harness the transformative power of this technology for your business!</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['blockchain for payments', 'blockchain lending platforms', 'blockchain investment strategies']</t>
+          <t>['learn blockchain', 'how to use blockchain', 'blockchain for digital services']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -654,58 +668,62 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t># Understanding Blockchain Technology: Smart Contracts and Crypto Services</t>
+          <t># Unlocking the Future of Decentralized Finance with Smart Contracts and Crypto Wallets</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Discover the key differences between blockchain technology and Bitcoin, explore smart contracts, and learn about crypto services in our comprehensive guide to decentralized finance (DeFi).</t>
+          <t>Unlock the potential of AWS blockchain in FinTech through smart contracts and decentralized finance. Discover how these technologies enhance security, efficiency, and cost-effectiveness for your business, while crypto wallets play a crucial role in facilitating transactions today!</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>In the ever-evolving landscape of financial technology, few topics generate as much interest and debate as blockchain technology, Bitcoin, and decentralized finance (DeFi). As we navigate through the complexities of these concepts, understanding their distinctions and interconnections becomes crucial for both investors and enthusiasts. Whether you’re a seasoned trader or a curious newcomer, this article will unravel the nuances of blockchain technology versus Bitcoin, explore current crypto market trends, and delve into the burgeoning world of decentralized finance.
-## Understanding Blockchain Technology vs. Bitcoin
-### What is Blockchain Technology?
-Blockchain technology is the underlying framework that enables the existence of cryptocurrencies, including Bitcoin. It is a decentralized digital ledger that records transactions across multiple computers, ensuring that the data is secure, transparent, and immutable. Each block in the chain contains a number of transactions. Once a block is filled, it is linked to the previous block, forming a chronological chain.
-### What is Bitcoin?
-Bitcoin, on the other hand, is a specific cryptocurrency that operates on its own blockchain. Created in 2009 by an anonymous person or group known as Satoshi Nakamoto, Bitcoin serves as a digital currency for peer-to-peer transactions. It has gained immense popularity as a store of value and a speculative investment.
-### Key Differences Between Blockchain Technology and Bitcoin
-- **Functionality**: Blockchain technology is a framework, while Bitcoin is a currency.
-- **Use Cases**: Blockchain technology has applications beyond cryptocurrencies, such as supply chain management and voting systems. Bitcoin primarily serves as a medium of exchange and a digital asset.
-- **Ownership**: Blockchain technology can be owned and operated by anyone, while Bitcoin ownership is tied to individual wallets.
-## Current Crypto Market Trends
-### Market Volatility
-The crypto market is known for its volatility. Prices can surge or plummet within hours, influenced by regulatory news, technological advancements, and macroeconomic trends. Understanding these dynamics is essential for making informed investment decisions.
-### Institutional Adoption
-In recent years, institutional investors have begun to embrace cryptocurrencies. Major companies and financial institutions are allocating funds to Bitcoin and other digital assets, signaling a shift in perception from speculative assets to legitimate investment vehicles.
-### Regulatory Developments
-Regulatory frameworks surrounding cryptocurrencies are evolving. Governments worldwide are establishing guidelines to protect investors and ensure market integrity. Keeping abreast of these changes is vital for anyone involved in the crypto space.
-## Decentralized Finance (DeFi)
-### What is DeFi?
-Decentralized finance, or DeFi, refers to a suite of financial services built on blockchain technology that operates without intermediaries. This ecosystem allows users to lend, borrow, trade, and earn interest on their crypto assets in a transparent and secure manner.
-### Key Components of DeFi
-- **Decentralized Exchanges (DEXs)**: Platforms that allow users to trade cryptocurrencies directly with one another without a central authority.
-- **Lending Protocols**: Services that enable users to lend their assets to others and earn interest, often through smart contracts.
-- **Stablecoins**: Cryptocurrencies pegged to traditional assets, providing stability in the volatile crypto market.
-### The Future of DeFi
-The DeFi sector has experienced explosive growth, with total value locked (TVL) in DeFi protocols reaching billions of dollars. As more users seek alternatives to traditional banking, DeFi is poised to reshape the financial landscape.
+          <t>In the rapidly evolving world of FinTech, the integration of blockchain technology is reshaping how businesses operate and interact with customers. Among the various platforms available, AWS (Amazon Web Services) stands out as a powerful player, offering robust solutions for companies looking to leverage blockchain. But what exactly does AWS blockchain entail, and how can it benefit your FinTech operations? Let’s dive into the intricacies of AWS blockchain and explore its potential in the context of decentralized finance.
+## Understanding AWS Blockchain
+### What is AWS Blockchain?
+AWS blockchain is a fully managed service that simplifies the creation and management of blockchain networks. It provides the necessary tools and infrastructure for businesses to build decentralized applications (DApps) with ease. AWS offers two primary services in this domain:
+- **Amazon Managed Blockchain**: This service allows users to create and manage scalable blockchain networks using popular frameworks like Hyperledger Fabric and Ethereum.
+- **Amazon Quantum Ledger Database (QLDB)**: QLDB is a fully managed ledger database that provides a transparent, immutable, and cryptographically verifiable transaction log.
+### Key Features of AWS Blockchain
+AWS blockchain services come with several features that make them appealing to FinTech companies:
+- **Scalability**: Easily scale your blockchain network to accommodate growing transaction volumes.
+- **Security**: Benefit from AWS's robust security protocols, ensuring data integrity and confidentiality.
+- **Cost-Effectiveness**: Pay only for what you use, eliminating the need for upfront investments in infrastructure.
+## Benefits of Using AWS Blockchain in FinTech
+### Enhanced Security and Transparency
+In the FinTech sector, security and transparency are paramount. AWS blockchain provides a secure environment where transactions are recorded immutably. This means that once a transaction is added to the blockchain, it cannot be altered or deleted, ensuring data integrity.
+### Improved Efficiency and Speed
+Traditional financial systems often involve multiple intermediaries, leading to delays and increased costs. With AWS blockchain, transactions can be processed faster and more efficiently. Smart contracts automate processes, which reduces the time it takes to execute transactions. This efficiency is crucial in the world of decentralized finance, where speed can significantly impact user experience.
+### Cost Reduction
+By utilizing AWS blockchain, FinTech companies can significantly reduce operational costs. The managed services eliminate the need for extensive IT resources, allowing companies to focus on core business functions rather than infrastructure maintenance. This cost reduction is particularly beneficial in the competitive landscape of decentralized finance.
+## Use Cases of AWS Blockchain in FinTech
+### Payments and Remittances
+AWS blockchain can streamline payment processing, enabling quicker cross-border transactions with lower fees. By using blockchain technology, businesses can eliminate intermediaries, resulting in faster and cheaper transfers. This capability is essential for decentralized finance, where users seek efficient and cost-effective solutions.
+### Identity Verification
+Identity fraud is a major concern in the financial industry. AWS blockchain can facilitate secure identity verification processes, allowing users to maintain control over their personal information while providing necessary access to financial institutions. This feature is vital for enhancing trust in decentralized finance applications.
+### Supply Chain Finance
+Incorporating AWS blockchain into supply chain finance can enhance transparency and traceability. By tracking goods and transactions on the blockchain, businesses can ensure compliance and reduce fraud. This transparency can also benefit decentralized finance by ensuring that all parties have access to the same information.
+## Getting Started with AWS Blockchain
+### Choosing the Right Framework
+When starting with AWS blockchain, it’s essential to choose the right framework for your needs. Hyperledger Fabric is suitable for permissioned networks, while Ethereum is ideal for public applications. Assess your specific requirements before making a decision.
+### Setting Up Your Network
+AWS provides comprehensive documentation and tutorials to help you set up your blockchain network. Take advantage of these resources to ensure a smooth implementation process.
+### Continuous Monitoring and Optimization
+Once your AWS blockchain network is up and running, continuous monitoring is crucial. Utilize AWS CloudWatch to track performance metrics and optimize your network as needed. This ongoing optimization is key to maintaining the effectiveness of your decentralized finance applications.
 ## Conclusion
-In summary, understanding the distinctions between blockchain technology and Bitcoin is essential for navigating the crypto ecosystem. The current market trends indicate a growing acceptance of cryptocurrencies among institutional investors and a shift towards regulatory clarity. Meanwhile, decentralized finance is revolutionizing the way we think about financial services, offering innovative solutions that bypass traditional intermediaries.
+AWS blockchain presents immense opportunities for FinTech companies seeking to enhance security, improve efficiency, and reduce costs. By leveraging the capabilities of AWS, businesses can develop innovative solutions that meet the demands of a competitive market. As the FinTech landscape continues to evolve, adopting AWS blockchain could very well be a game-changer for your organization, particularly in the realm of decentralized finance.
 ### Actionable Takeaways
-- **Educate Yourself**: Stay informed about blockchain technology and its applications.
-- **Monitor Market Trends**: Follow crypto market trends to make informed investment decisions.
-- **Explore DeFi**: Investigate decentralized finance platforms to leverage your crypto assets effectively.
-- **Understand Regulations**: Keep up with regulatory developments to navigate the crypto landscape safely.
-- **Diversify Investments**: Consider a diversified approach to investing in cryptocurrencies, blockchain technology, and DeFi projects.
-As you delve deeper into the world of FinTech, remember that knowledge is your best asset. Stay curious, stay informed, and don’t hesitate to explore the myriad opportunities that blockchain technology, Bitcoin, and decentralized finance have to offer.
-### Call to Action
-Ready to take your FinTech journey to the next level? Subscribe to our newsletter for the latest insights, trends, and expert analysis in the world of cryptocurrencies and blockchain technology. Join our community today and stay ahead in this dynamic market!</t>
+- **Evaluate Your Needs**: Assess whether AWS blockchain aligns with your business goals.
+- **Choose the Right Framework**: Select between Hyperledger Fabric and Ethereum based on your requirements.
+- **Utilize AWS Resources**: Take advantage of AWS documentation for a smooth setup.
+- **Monitor Performance**: Use AWS CloudWatch for ongoing network optimization.
+- **Stay Informed**: Keep up with the latest trends in blockchain technology to remain competitive.
+Are you ready to revolutionize your FinTech operations with AWS blockchain? Start your journey today by exploring AWS’s blockchain services and discover how they can transform your business. Don’t miss out on the opportunity to stay ahead in this fast-paced industry, especially with the growing importance of decentralized finance and secure crypto wallets!</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['blockchain technology', 'smart contracts', 'crypto services']</t>
+          <t>['smart contracts', 'decentralized finance', 'crypto wallets']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
